--- a/Data/ResourceData.xlsx
+++ b/Data/ResourceData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GItData\Space Scavenger\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15CDFE67-2E33-4BE0-BD6D-627AF208AEA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C75F0F6C-2C3B-4759-A74A-6576FA05A688}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{93C31246-A434-463F-B3AC-3F8F09C613C4}"/>
+    <workbookView xWindow="6630" yWindow="1245" windowWidth="22005" windowHeight="11295" xr2:uid="{93C31246-A434-463F-B3AC-3F8F09C613C4}"/>
   </bookViews>
   <sheets>
     <sheet name="Resource" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>자원 종류</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -81,6 +81,14 @@
   </si>
   <si>
     <t>우주에서도 찾아보기 힘든 우라늄 이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mineral</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자원이 풍부하게 들어있는 광석이다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -500,10 +508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5892FE19-FBC7-4258-BF0C-3A31571BEB99}">
-  <dimension ref="A2:C7"/>
+  <dimension ref="A2:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -515,7 +523,7 @@
     <row r="2" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A2">
         <f>COUNTA(B3:B32)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -562,6 +570,14 @@
       </c>
       <c r="C7" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Data/ResourceData.xlsx
+++ b/Data/ResourceData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GItData\Space Scavenger\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C75F0F6C-2C3B-4759-A74A-6576FA05A688}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15CDFE67-2E33-4BE0-BD6D-627AF208AEA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6630" yWindow="1245" windowWidth="22005" windowHeight="11295" xr2:uid="{93C31246-A434-463F-B3AC-3F8F09C613C4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{93C31246-A434-463F-B3AC-3F8F09C613C4}"/>
   </bookViews>
   <sheets>
     <sheet name="Resource" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>자원 종류</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -81,14 +81,6 @@
   </si>
   <si>
     <t>우주에서도 찾아보기 힘든 우라늄 이다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mineral</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>자원이 풍부하게 들어있는 광석이다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -508,10 +500,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5892FE19-FBC7-4258-BF0C-3A31571BEB99}">
-  <dimension ref="A2:C8"/>
+  <dimension ref="A2:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -523,7 +515,7 @@
     <row r="2" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A2">
         <f>COUNTA(B3:B32)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -570,14 +562,6 @@
       </c>
       <c r="C7" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Data/ResourceData.xlsx
+++ b/Data/ResourceData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GItData\Space Scavenger\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15CDFE67-2E33-4BE0-BD6D-627AF208AEA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E756878-111A-4170-B9CC-0BB3742D4ABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{93C31246-A434-463F-B3AC-3F8F09C613C4}"/>
+    <workbookView xWindow="6630" yWindow="1245" windowWidth="22005" windowHeight="11295" xr2:uid="{93C31246-A434-463F-B3AC-3F8F09C613C4}"/>
   </bookViews>
   <sheets>
     <sheet name="Resource" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>자원 종류</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -81,6 +81,14 @@
   </si>
   <si>
     <t>우주에서도 찾아보기 힘든 우라늄 이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mineral</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광물이 풍부한 자원이다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -500,10 +508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5892FE19-FBC7-4258-BF0C-3A31571BEB99}">
-  <dimension ref="A2:C7"/>
+  <dimension ref="A2:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -515,7 +523,7 @@
     <row r="2" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A2">
         <f>COUNTA(B3:B32)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -562,6 +570,14 @@
       </c>
       <c r="C7" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Data/ResourceData.xlsx
+++ b/Data/ResourceData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GItData\Space Scavenger\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E756878-111A-4170-B9CC-0BB3742D4ABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C75F0F6C-2C3B-4759-A74A-6576FA05A688}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6630" yWindow="1245" windowWidth="22005" windowHeight="11295" xr2:uid="{93C31246-A434-463F-B3AC-3F8F09C613C4}"/>
   </bookViews>
@@ -88,7 +88,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>광물이 풍부한 자원이다</t>
+    <t>자원이 풍부하게 들어있는 광석이다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
